--- a/biology/Botanique/Forêt_de_Zika/Forêt_de_Zika.xlsx
+++ b/biology/Botanique/Forêt_de_Zika/Forêt_de_Zika.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Zika</t>
+          <t>Forêt_de_Zika</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La forêt de Zika est une forêt tropicale près d'Entebbe[1], en Ouganda. 
+La forêt de Zika est une forêt tropicale près d'Entebbe, en Ouganda. 
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Zika</t>
+          <t>Forêt_de_Zika</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,8 +526,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Localisation
-La forêt couvre une superficie d'environ 25 hectares à côté du marais de Waiya Bay, à l'entrée du lac Victoria. Facilement accessible et en combinant plusieurs écosystèmes, la forêt de Zika est très adaptée à l'étude de moustiques. La taille de la zone de recherche de la forêt est d'environ 12 ha. La forêt a une biodiversité riche en plantes et papillons de nuit, et on dénombre environ 40 types de moustiques dans l'insectarium.
+          <t>Localisation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La forêt couvre une superficie d'environ 25 hectares à côté du marais de Waiya Bay, à l'entrée du lac Victoria. Facilement accessible et en combinant plusieurs écosystèmes, la forêt de Zika est très adaptée à l'étude de moustiques. La taille de la zone de recherche de la forêt est d'environ 12 ha. La forêt a une biodiversité riche en plantes et papillons de nuit, et on dénombre environ 40 types de moustiques dans l'insectarium.
 La forêt est accessible aux observateurs d'oiseaux. Jimmy Carter l'a visité.
 </t>
         </is>
@@ -527,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Zika</t>
+          <t>Forêt_de_Zika</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,8 +564,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Études de moustiques
-Les enquêtes concernant les moustiques à virus Zika ont commencé en 1946 dans le cadre de l'étude de la fièvre jaune humaine à l'Institut de recherche de la fièvre jaune (rebaptisé Institut de recherche de virus Afrique de l'Est en 1950, puis Uganda Virus Research Institute en 1977), établi à Entebbe, en Ouganda, en 1936 par la fondation Rockefeller. 
+          <t>Études de moustiques</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les enquêtes concernant les moustiques à virus Zika ont commencé en 1946 dans le cadre de l'étude de la fièvre jaune humaine à l'Institut de recherche de la fièvre jaune (rebaptisé Institut de recherche de virus Afrique de l'Est en 1950, puis Uganda Virus Research Institute en 1977), établi à Entebbe, en Ouganda, en 1936 par la fondation Rockefeller. 
 En 1947, le virus Zika a été isolé à partir d'un singe de Zika. En 1960, une tour en acier 36,6 M a été déplacée à proximité de la forêt de Zika pour étudier la distribution verticale des moustiques, ce qui a permis l’étude globale de la population de moustiques en 1964. En 1964, le virus Zika a été décrit par Haddow et al. à partir d'une collection de moustiques.  
 Depuis environ quatre décennies, il n'y a pas de collection de moustiques, et les activités humaines empiètent sur la forêt. Une collection de moustiques a été effectuée sur les périodes 2009-2010.[Passage contradictoire]
 </t>
@@ -561,7 +583,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>For%C3%AAt_de_Zika</t>
+          <t>Forêt_de_Zika</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -579,7 +601,9 @@
           <t>Toponymie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Zika signifie « envahi » dans la langue luganda.
 </t>
